--- a/tests/databooks/progbook_hiv_dyn.xlsx
+++ b/tests/databooks/progbook_hiv_dyn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7B4A4B5A-C65E-3C4D-8C9A-A61015A0C38A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D91DD770-A4B4-7F43-896A-7D71DA9A93C4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="20720" windowHeight="14420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="20720" windowHeight="14420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
@@ -4750,8 +4750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5770,7 +5770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="G10" sqref="G10:M23"/>
     </sheetView>
   </sheetViews>

--- a/tests/databooks/progbook_hiv_dyn.xlsx
+++ b/tests/databooks/progbook_hiv_dyn.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="45">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>Additive</t>
-  </si>
-  <si>
-    <t>Best</t>
   </si>
   <si>
     <t>Test sensitivity</t>
@@ -2667,9 +2664,7 @@
       <c r="C2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="G2" s="6">
         <v>0.027</v>
@@ -2694,9 +2689,7 @@
       <c r="C3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="G3" s="6">
         <v>0.029</v>
@@ -2712,7 +2705,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>36</v>
@@ -2766,9 +2759,7 @@
       <c r="C6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="G6" s="6">
         <v>0.99</v>
@@ -2793,9 +2784,7 @@
       <c r="C7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="G7" s="6">
         <v>0.99</v>
@@ -2811,7 +2800,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>36</v>
@@ -2865,9 +2854,7 @@
       <c r="C10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="G10" s="6">
         <v>0.5</v>
@@ -2894,9 +2881,7 @@
       <c r="C11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="G11" s="6">
         <v>0.6</v>
@@ -2914,7 +2899,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>36</v>
@@ -2968,9 +2953,7 @@
       <c r="C14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -2995,9 +2978,7 @@
       <c r="C15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -3009,7 +2990,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>36</v>
@@ -3063,9 +3044,7 @@
       <c r="C18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -3090,9 +3069,7 @@
       <c r="C19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -3108,7 +3085,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>36</v>
@@ -3162,9 +3139,7 @@
       <c r="C22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -3189,9 +3164,7 @@
       <c r="C23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -3206,51 +3179,147 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="1" priority="79">
+      <formula>COUNTIF(F10:M10,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="80">
+      <formula>AND(COUNTIF(F10:M10,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="1" priority="95">
+      <formula>COUNTIF(F11:M11,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="96">
+      <formula>AND(COUNTIF(F11:M11,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="1" priority="111">
+      <formula>COUNTIF(F14:M14,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="112">
+      <formula>AND(COUNTIF(F14:M14,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="1" priority="127">
+      <formula>COUNTIF(F15:M15,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="128">
+      <formula>AND(COUNTIF(F15:M15,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="1" priority="143">
+      <formula>COUNTIF(F18:M18,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="144">
+      <formula>AND(COUNTIF(F18:M18,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="1" priority="159">
+      <formula>COUNTIF(F19:M19,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="160">
+      <formula>AND(COUNTIF(F19:M19,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="1" priority="15">
+      <formula>COUNTIF(F2:M2,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="16">
+      <formula>AND(COUNTIF(F2:M2,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="1" priority="175">
+      <formula>COUNTIF(F22:M22,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="176">
+      <formula>AND(COUNTIF(F22:M22,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="1" priority="191">
+      <formula>COUNTIF(F23:M23,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="192">
+      <formula>AND(COUNTIF(F23:M23,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="expression" dxfId="1" priority="31">
+      <formula>COUNTIF(F3:M3,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="32">
+      <formula>AND(COUNTIF(F3:M3,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="1" priority="47">
+      <formula>COUNTIF(F6:M6,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="48">
+      <formula>AND(COUNTIF(F6:M6,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="1" priority="63">
+      <formula>COUNTIF(F7:M7,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="64">
+      <formula>AND(COUNTIF(F7:M7,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="2" priority="57">
+    <cfRule type="expression" dxfId="2" priority="65">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="58">
+    <cfRule type="expression" dxfId="3" priority="66">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="2" priority="71">
+    <cfRule type="expression" dxfId="2" priority="81">
       <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="72">
+    <cfRule type="expression" dxfId="3" priority="82">
       <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="2" priority="85">
+    <cfRule type="expression" dxfId="2" priority="97">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="86">
+    <cfRule type="expression" dxfId="3" priority="98">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="2" priority="99">
+    <cfRule type="expression" dxfId="2" priority="113">
       <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="100">
+    <cfRule type="expression" dxfId="3" priority="114">
       <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="2" priority="113">
+    <cfRule type="expression" dxfId="2" priority="129">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G18)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="114">
+    <cfRule type="expression" dxfId="3" priority="130">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="2" priority="127">
+    <cfRule type="expression" dxfId="2" priority="145">
       <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G19)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="128">
+    <cfRule type="expression" dxfId="3" priority="146">
       <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3263,90 +3332,90 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="2" priority="141">
+    <cfRule type="expression" dxfId="2" priority="161">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="142">
+    <cfRule type="expression" dxfId="3" priority="162">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="2" priority="155">
+    <cfRule type="expression" dxfId="2" priority="177">
       <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="156">
+    <cfRule type="expression" dxfId="3" priority="178">
       <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="expression" dxfId="2" priority="15">
+    <cfRule type="expression" dxfId="2" priority="17">
       <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="16">
+    <cfRule type="expression" dxfId="3" priority="18">
       <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="2" priority="29">
+    <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G6)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="30">
+    <cfRule type="expression" dxfId="3" priority="34">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="2" priority="43">
+    <cfRule type="expression" dxfId="2" priority="49">
       <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G7)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="44">
+    <cfRule type="expression" dxfId="3" priority="50">
       <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="2" priority="59">
+    <cfRule type="expression" dxfId="2" priority="67">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="60">
+    <cfRule type="expression" dxfId="3" priority="68">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="2" priority="73">
+    <cfRule type="expression" dxfId="2" priority="83">
       <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="74">
+    <cfRule type="expression" dxfId="3" priority="84">
       <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="2" priority="87">
+    <cfRule type="expression" dxfId="2" priority="99">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="88">
+    <cfRule type="expression" dxfId="3" priority="100">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="2" priority="101">
+    <cfRule type="expression" dxfId="2" priority="115">
       <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="102">
+    <cfRule type="expression" dxfId="3" priority="116">
       <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="expression" dxfId="2" priority="115">
+    <cfRule type="expression" dxfId="2" priority="131">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H18)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="116">
+    <cfRule type="expression" dxfId="3" priority="132">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="expression" dxfId="2" priority="129">
+    <cfRule type="expression" dxfId="2" priority="147">
       <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H19)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="130">
+    <cfRule type="expression" dxfId="3" priority="148">
       <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3359,90 +3428,90 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="2" priority="143">
+    <cfRule type="expression" dxfId="2" priority="163">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="144">
+    <cfRule type="expression" dxfId="3" priority="164">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="2" priority="157">
+    <cfRule type="expression" dxfId="2" priority="179">
       <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="158">
+    <cfRule type="expression" dxfId="3" priority="180">
       <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="expression" dxfId="2" priority="17">
+    <cfRule type="expression" dxfId="2" priority="19">
       <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="18">
+    <cfRule type="expression" dxfId="3" priority="20">
       <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="2" priority="31">
+    <cfRule type="expression" dxfId="2" priority="35">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H6)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="32">
+    <cfRule type="expression" dxfId="3" priority="36">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="2" priority="45">
+    <cfRule type="expression" dxfId="2" priority="51">
       <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H7)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="46">
+    <cfRule type="expression" dxfId="3" priority="52">
       <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="2" priority="61">
+    <cfRule type="expression" dxfId="2" priority="69">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="62">
+    <cfRule type="expression" dxfId="3" priority="70">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="2" priority="75">
+    <cfRule type="expression" dxfId="2" priority="85">
       <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="76">
+    <cfRule type="expression" dxfId="3" priority="86">
       <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="2" priority="89">
+    <cfRule type="expression" dxfId="2" priority="101">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="90">
+    <cfRule type="expression" dxfId="3" priority="102">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="2" priority="103">
+    <cfRule type="expression" dxfId="2" priority="117">
       <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="104">
+    <cfRule type="expression" dxfId="3" priority="118">
       <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="expression" dxfId="2" priority="117">
+    <cfRule type="expression" dxfId="2" priority="133">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I18)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="118">
+    <cfRule type="expression" dxfId="3" priority="134">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="2" priority="131">
+    <cfRule type="expression" dxfId="2" priority="149">
       <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I19)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="132">
+    <cfRule type="expression" dxfId="3" priority="150">
       <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3455,90 +3524,90 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="2" priority="145">
+    <cfRule type="expression" dxfId="2" priority="165">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="146">
+    <cfRule type="expression" dxfId="3" priority="166">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="2" priority="159">
+    <cfRule type="expression" dxfId="2" priority="181">
       <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="160">
+    <cfRule type="expression" dxfId="3" priority="182">
       <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="expression" dxfId="2" priority="19">
+    <cfRule type="expression" dxfId="2" priority="21">
       <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="20">
+    <cfRule type="expression" dxfId="3" priority="22">
       <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="2" priority="33">
+    <cfRule type="expression" dxfId="2" priority="37">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I6)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="34">
+    <cfRule type="expression" dxfId="3" priority="38">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="2" priority="47">
+    <cfRule type="expression" dxfId="2" priority="53">
       <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I7)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="48">
+    <cfRule type="expression" dxfId="3" priority="54">
       <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="2" priority="63">
+    <cfRule type="expression" dxfId="2" priority="71">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="64">
+    <cfRule type="expression" dxfId="3" priority="72">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="2" priority="77">
+    <cfRule type="expression" dxfId="2" priority="87">
       <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="78">
+    <cfRule type="expression" dxfId="3" priority="88">
       <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="2" priority="91">
+    <cfRule type="expression" dxfId="2" priority="103">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="92">
+    <cfRule type="expression" dxfId="3" priority="104">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="2" priority="105">
+    <cfRule type="expression" dxfId="2" priority="119">
       <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="106">
+    <cfRule type="expression" dxfId="3" priority="120">
       <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="expression" dxfId="2" priority="119">
+    <cfRule type="expression" dxfId="2" priority="135">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J18)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="120">
+    <cfRule type="expression" dxfId="3" priority="136">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="expression" dxfId="2" priority="133">
+    <cfRule type="expression" dxfId="2" priority="151">
       <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J19)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="134">
+    <cfRule type="expression" dxfId="3" priority="152">
       <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3551,90 +3620,90 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="expression" dxfId="2" priority="147">
+    <cfRule type="expression" dxfId="2" priority="167">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="148">
+    <cfRule type="expression" dxfId="3" priority="168">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="expression" dxfId="2" priority="161">
+    <cfRule type="expression" dxfId="2" priority="183">
       <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="162">
+    <cfRule type="expression" dxfId="3" priority="184">
       <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="expression" dxfId="2" priority="21">
+    <cfRule type="expression" dxfId="2" priority="23">
       <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="22">
+    <cfRule type="expression" dxfId="3" priority="24">
       <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="2" priority="35">
+    <cfRule type="expression" dxfId="2" priority="39">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J6)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="36">
+    <cfRule type="expression" dxfId="3" priority="40">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="2" priority="49">
+    <cfRule type="expression" dxfId="2" priority="55">
       <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J7)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="50">
+    <cfRule type="expression" dxfId="3" priority="56">
       <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="2" priority="65">
+    <cfRule type="expression" dxfId="2" priority="73">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="66">
+    <cfRule type="expression" dxfId="3" priority="74">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="2" priority="79">
+    <cfRule type="expression" dxfId="2" priority="89">
       <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="80">
+    <cfRule type="expression" dxfId="3" priority="90">
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="expression" dxfId="2" priority="93">
+    <cfRule type="expression" dxfId="2" priority="105">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="94">
+    <cfRule type="expression" dxfId="3" priority="106">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="2" priority="107">
+    <cfRule type="expression" dxfId="2" priority="121">
       <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="108">
+    <cfRule type="expression" dxfId="3" priority="122">
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="expression" dxfId="2" priority="121">
+    <cfRule type="expression" dxfId="2" priority="137">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K18)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="122">
+    <cfRule type="expression" dxfId="3" priority="138">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="expression" dxfId="2" priority="135">
+    <cfRule type="expression" dxfId="2" priority="153">
       <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K19)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="136">
+    <cfRule type="expression" dxfId="3" priority="154">
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3647,90 +3716,90 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="expression" dxfId="2" priority="149">
+    <cfRule type="expression" dxfId="2" priority="169">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="150">
+    <cfRule type="expression" dxfId="3" priority="170">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="expression" dxfId="2" priority="163">
+    <cfRule type="expression" dxfId="2" priority="185">
       <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="164">
+    <cfRule type="expression" dxfId="3" priority="186">
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="expression" dxfId="2" priority="23">
+    <cfRule type="expression" dxfId="2" priority="25">
       <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="24">
+    <cfRule type="expression" dxfId="3" priority="26">
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="2" priority="37">
+    <cfRule type="expression" dxfId="2" priority="41">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K6)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="38">
+    <cfRule type="expression" dxfId="3" priority="42">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="2" priority="51">
+    <cfRule type="expression" dxfId="2" priority="57">
       <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K7)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="52">
+    <cfRule type="expression" dxfId="3" priority="58">
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="2" priority="67">
+    <cfRule type="expression" dxfId="2" priority="75">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="68">
+    <cfRule type="expression" dxfId="3" priority="76">
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="2" priority="81">
+    <cfRule type="expression" dxfId="2" priority="91">
       <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="82">
+    <cfRule type="expression" dxfId="3" priority="92">
       <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="expression" dxfId="2" priority="95">
+    <cfRule type="expression" dxfId="2" priority="107">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="96">
+    <cfRule type="expression" dxfId="3" priority="108">
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="expression" dxfId="2" priority="109">
+    <cfRule type="expression" dxfId="2" priority="123">
       <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="110">
+    <cfRule type="expression" dxfId="3" priority="124">
       <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="expression" dxfId="2" priority="123">
+    <cfRule type="expression" dxfId="2" priority="139">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L18)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="124">
+    <cfRule type="expression" dxfId="3" priority="140">
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="expression" dxfId="2" priority="137">
+    <cfRule type="expression" dxfId="2" priority="155">
       <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L19)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="138">
+    <cfRule type="expression" dxfId="3" priority="156">
       <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3743,90 +3812,90 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="expression" dxfId="2" priority="151">
+    <cfRule type="expression" dxfId="2" priority="171">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="152">
+    <cfRule type="expression" dxfId="3" priority="172">
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23">
-    <cfRule type="expression" dxfId="2" priority="165">
+    <cfRule type="expression" dxfId="2" priority="187">
       <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="166">
+    <cfRule type="expression" dxfId="3" priority="188">
       <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="expression" dxfId="2" priority="25">
+    <cfRule type="expression" dxfId="2" priority="27">
       <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="26">
+    <cfRule type="expression" dxfId="3" priority="28">
       <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="2" priority="39">
+    <cfRule type="expression" dxfId="2" priority="43">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L6)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="40">
+    <cfRule type="expression" dxfId="3" priority="44">
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="expression" dxfId="2" priority="53">
+    <cfRule type="expression" dxfId="2" priority="59">
       <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L7)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="54">
+    <cfRule type="expression" dxfId="3" priority="60">
       <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="2" priority="69">
+    <cfRule type="expression" dxfId="2" priority="77">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="70">
+    <cfRule type="expression" dxfId="3" priority="78">
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="expression" dxfId="2" priority="83">
+    <cfRule type="expression" dxfId="2" priority="93">
       <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="84">
+    <cfRule type="expression" dxfId="3" priority="94">
       <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="expression" dxfId="2" priority="97">
+    <cfRule type="expression" dxfId="2" priority="109">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="98">
+    <cfRule type="expression" dxfId="3" priority="110">
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="expression" dxfId="2" priority="111">
+    <cfRule type="expression" dxfId="2" priority="125">
       <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="112">
+    <cfRule type="expression" dxfId="3" priority="126">
       <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18">
-    <cfRule type="expression" dxfId="2" priority="125">
+    <cfRule type="expression" dxfId="2" priority="141">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M18)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="126">
+    <cfRule type="expression" dxfId="3" priority="142">
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="expression" dxfId="2" priority="139">
+    <cfRule type="expression" dxfId="2" priority="157">
       <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M19)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="140">
+    <cfRule type="expression" dxfId="3" priority="158">
       <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3839,42 +3908,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22">
-    <cfRule type="expression" dxfId="2" priority="153">
+    <cfRule type="expression" dxfId="2" priority="173">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="154">
+    <cfRule type="expression" dxfId="3" priority="174">
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23">
-    <cfRule type="expression" dxfId="2" priority="167">
+    <cfRule type="expression" dxfId="2" priority="189">
       <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="168">
+    <cfRule type="expression" dxfId="3" priority="190">
       <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="expression" dxfId="2" priority="27">
+    <cfRule type="expression" dxfId="2" priority="29">
       <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="28">
+    <cfRule type="expression" dxfId="3" priority="30">
       <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="2" priority="41">
+    <cfRule type="expression" dxfId="2" priority="45">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M6)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="42">
+    <cfRule type="expression" dxfId="3" priority="46">
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
-    <cfRule type="expression" dxfId="2" priority="55">
+    <cfRule type="expression" dxfId="2" priority="61">
       <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M7)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="56">
+    <cfRule type="expression" dxfId="3" priority="62">
       <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tests/databooks/progbook_hiv_dyn.xlsx
+++ b/tests/databooks/progbook_hiv_dyn.xlsx
@@ -2540,43 +2540,43 @@
   </conditionalFormatting>
   <dataValidations count="14">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
       <formula1>"people/year,people"</formula1>
